--- a/data/polbis.data.bysite.xlsx
+++ b/data/polbis.data.bysite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliakdouglasgmail.com/Desktop/ohe.mauka/Polyscias Kauai 2022/polbis.analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D4B62D-6976-9A42-B8C1-D6A8D09F5D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DE9E0F-83DE-804B-A986-FFDCE8B07CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="25160" windowHeight="17540" xr2:uid="{43FAEAC1-0E44-9744-8B48-1D8E22A1BDAF}"/>
+    <workbookView xWindow="240" yWindow="920" windowWidth="25160" windowHeight="17540" xr2:uid="{43FAEAC1-0E44-9744-8B48-1D8E22A1BDAF}"/>
   </bookViews>
   <sheets>
     <sheet name="by.site" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="163">
   <si>
     <t>HaupuSummit</t>
   </si>
@@ -521,13 +521,16 @@
   </si>
   <si>
     <t>weed.control</t>
+  </si>
+  <si>
+    <t>mean.Temp.dry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -570,12 +573,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -597,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -611,7 +608,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -929,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6FBAB9-1453-5C4A-9C82-7B06B3864A44}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,7 +949,7 @@
     <col min="14" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -996,8 +992,11 @@
       <c r="N1" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>147</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1089,7 +1088,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1236,7 @@
       <c r="C7" s="5">
         <v>-159.39121900000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="2">
         <v>370</v>
       </c>
       <c r="E7" s="2">
@@ -1273,7 +1272,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1457,14 +1456,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>21.954277999999999</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>-159.490835</v>
       </c>
       <c r="D12" s="2">
@@ -1503,7 +1502,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
